--- a/docs/layouts.v2.xlsx
+++ b/docs/layouts.v2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgaliamov\projects\personal\ergo-layouts\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0E1390-3AC5-449D-9ECE-686DD7296E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D4116A-2823-421B-A7B3-DA7C93D688E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="624" yWindow="-108" windowWidth="30204" windowHeight="17496" tabRatio="872" activeTab="1" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="624" yWindow="-108" windowWidth="30204" windowHeight="17496" tabRatio="872" activeTab="2" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
     <sheet name="Template" sheetId="23" r:id="rId2"/>
-    <sheet name="Keys" sheetId="2" r:id="rId3"/>
+    <sheet name="My 22" sheetId="24" r:id="rId3"/>
+    <sheet name="Keys" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="100">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -324,6 +325,9 @@
   </si>
   <si>
     <t>Coordinates (y, x)</t>
+  </si>
+  <si>
+    <t>\</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1346,127 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF242729"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF242729"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF242729"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF242729"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1483,10 +1607,10 @@
     <sortCondition descending="1" ref="C11:C41"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F29E6BD3-B439-41C4-BE8F-610AFC5E9738}" name="c1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{CC0C47B8-0C79-4E2C-9EB5-F5E9CB958EC3}" name="c2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{1C35617F-3908-4F7A-9945-9522916F89AC}" name="%" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{7636CD5E-584B-4813-A688-6D7BE5ED99A1}" name="Delta" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{F29E6BD3-B439-41C4-BE8F-610AFC5E9738}" name="c1" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{CC0C47B8-0C79-4E2C-9EB5-F5E9CB958EC3}" name="c2" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{1C35617F-3908-4F7A-9945-9522916F89AC}" name="%" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{7636CD5E-584B-4813-A688-6D7BE5ED99A1}" name="Delta" dataDxfId="24">
       <calculatedColumnFormula>C11-Table915[[#This Row],[%]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1495,11 +1619,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3363858C-56A8-4ACF-BF9B-463A880F9011}" name="Table1116" displayName="Table1116" ref="F11:G27" totalsRowCount="1" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{3363858C-56A8-4ACF-BF9B-463A880F9011}" name="Table1116" displayName="Table1116" ref="F11:G27" totalsRowCount="1" headerRowDxfId="23">
   <autoFilter ref="F11:G26" xr:uid="{9BBF2816-FEF6-42E6-8C30-00E202F2187A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F07C97E3-D441-424B-902C-FA6DCD6D3AA3}" name="L" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{3B1CBEC1-D435-40A3-B638-76D4FB4AAE90}" name="Characters" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{F07C97E3-D441-424B-902C-FA6DCD6D3AA3}" name="L" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{3B1CBEC1-D435-40A3-B638-76D4FB4AAE90}" name="Characters" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.IFNA(INDEX($C$12:$C$58, MATCH(F12,$A$12:$A$58,0)), INDEX($C$12:$C$58, MATCH(F12,$B$12:$B$58,0))),0)</calculatedColumnFormula>
       <totalsRowFormula>SUM(G12:G26)</totalsRowFormula>
     </tableColumn>
@@ -1509,13 +1633,61 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{135FC4FC-77D2-4C0C-9C6E-4B2C99F39375}" name="Table1217" displayName="Table1217" ref="I11:J27" totalsRowCount="1" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{135FC4FC-77D2-4C0C-9C6E-4B2C99F39375}" name="Table1217" displayName="Table1217" ref="I11:J27" totalsRowCount="1" headerRowDxfId="18">
   <autoFilter ref="I11:J26" xr:uid="{E1556DEA-95E4-4A4E-9C8D-3ECC0250BFAA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AC40B6B4-4043-4128-B28A-BE60EAEEFE5D}" name="R" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{AC40B6B4-4043-4128-B28A-BE60EAEEFE5D}" name="R" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal">
       <calculatedColumnFormula>L3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{958E73B1-C39F-40AB-8002-2DCB2826C151}" name="Characters" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="3" xr3:uid="{958E73B1-C39F-40AB-8002-2DCB2826C151}" name="Characters" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+      <calculatedColumnFormula>_xlfn.IFNA(_xlfn.IFNA(INDEX($C$12:$C$58, MATCH(I12,$A$12:$A$58,0)), INDEX($C$12:$C$58, MATCH(I12,$B$12:$B$58,0))),0)</calculatedColumnFormula>
+      <totalsRowFormula>SUM(J12:J26)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F74ACB31-E771-4744-AFB8-C41177F4D332}" name="Table9152" displayName="Table9152" ref="A11:D41" totalsRowShown="0">
+  <autoFilter ref="A11:D41" xr:uid="{ACAA8516-E916-492E-8A8B-E2DB3A88ACF9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:C41">
+    <sortCondition descending="1" ref="C11:C41"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CA5199FC-5E1A-4C6F-A924-5CD52A69118A}" name="c1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D4625172-E54F-4B35-8C63-92C3247C511B}" name="c2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{3DB1E878-8727-4C2F-8548-5C2A8D0B8F34}" name="%" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{7C009464-06F7-4A69-A49A-C61D4379A731}" name="Delta" dataDxfId="10">
+      <calculatedColumnFormula>C11-Table9152[[#This Row],[%]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F00843-4FB4-4B2C-B02E-0FC49F32E031}" name="Table11163" displayName="Table11163" ref="F11:G27" totalsRowCount="1" headerRowDxfId="9">
+  <autoFilter ref="F11:G26" xr:uid="{9BBF2816-FEF6-42E6-8C30-00E202F2187A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7F586F45-2AC1-44FC-8464-700C1887E9CA}" name="L" dataDxfId="7" totalsRowDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{15829AEA-E267-44E8-B313-9942A03DA8AF}" name="Characters" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="6">
+      <calculatedColumnFormula>_xlfn.IFNA(_xlfn.IFNA(INDEX($C$12:$C$58, MATCH(F12,$A$12:$A$58,0)), INDEX($C$12:$C$58, MATCH(F12,$B$12:$B$58,0))),0)</calculatedColumnFormula>
+      <totalsRowFormula>SUM(G12:G26)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876838FB-C8FC-4918-9422-A17F549D65CA}" name="Table12174" displayName="Table12174" ref="I11:J27" totalsRowCount="1" headerRowDxfId="4">
+  <autoFilter ref="I11:J26" xr:uid="{E1556DEA-95E4-4A4E-9C8D-3ECC0250BFAA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7C701958-664A-4DC3-A4EE-DA8C01838898}" name="R" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="Normal">
+      <calculatedColumnFormula>L3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2C6032B4-4617-4AA9-9B2D-03C1BBD42902}" name="Characters" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="1">
       <calculatedColumnFormula>_xlfn.IFNA(_xlfn.IFNA(INDEX($C$12:$C$58, MATCH(I12,$A$12:$A$58,0)), INDEX($C$12:$C$58, MATCH(I12,$B$12:$B$58,0))),0)</calculatedColumnFormula>
       <totalsRowFormula>SUM(J12:J26)</totalsRowFormula>
     </tableColumn>
@@ -3693,10 +3865,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE5B34B-6F30-40B8-8389-C7CFE152C0D1}">
   <dimension ref="A1:AJ319"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6313,6 +6485,2595 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D46850-9899-4934-AECC-E554BEF85017}">
+  <dimension ref="A1:AJ319"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" style="78" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" style="78" customWidth="1"/>
+    <col min="4" max="5" width="4.77734375" style="78" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" style="78"/>
+    <col min="7" max="7" width="4.77734375" style="78" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="78" customWidth="1"/>
+    <col min="9" max="11" width="4.77734375" style="78" customWidth="1"/>
+    <col min="12" max="12" width="4.77734375" style="78"/>
+    <col min="13" max="13" width="4.77734375" style="78" customWidth="1"/>
+    <col min="14" max="18" width="4.77734375" style="78"/>
+    <col min="19" max="20" width="4.77734375" style="78" customWidth="1"/>
+    <col min="21" max="29" width="4.77734375" style="78"/>
+    <col min="30" max="31" width="4.77734375" style="78" customWidth="1"/>
+    <col min="32" max="16384" width="4.77734375" style="78"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" s="76"/>
+      <c r="B2" s="83">
+        <v>1</v>
+      </c>
+      <c r="C2" s="83">
+        <v>2</v>
+      </c>
+      <c r="D2" s="83">
+        <v>3</v>
+      </c>
+      <c r="E2" s="84">
+        <v>4</v>
+      </c>
+      <c r="F2" s="84">
+        <v>5</v>
+      </c>
+      <c r="G2" s="77"/>
+      <c r="H2" s="4"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="84">
+        <v>6</v>
+      </c>
+      <c r="M2" s="102">
+        <v>7</v>
+      </c>
+      <c r="N2" s="83">
+        <v>8</v>
+      </c>
+      <c r="O2" s="86">
+        <v>9</v>
+      </c>
+      <c r="P2" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="87"/>
+      <c r="T2" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A2,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="U2" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B2,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="V2" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C2,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="W2" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D2,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="X2" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E2,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F2,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="Z2" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G2,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K2,"""")</f>
+        <v>"7": "\"</v>
+      </c>
+      <c r="AE2" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L2,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="AF2" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M2,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="AG2" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N2,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="AH2" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O2,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="AI2" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P2,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q2,"""")</f>
+        <v>"1": ""</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="81"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A3,"""")</f>
+        <v>"8": "\\"</v>
+      </c>
+      <c r="U3" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B3,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="V3" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C3,"""")</f>
+        <v>"10": "m"</v>
+      </c>
+      <c r="W3" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D3,"""")</f>
+        <v>"11": "o"</v>
+      </c>
+      <c r="X3" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E3,"""")</f>
+        <v>"12": "f"</v>
+      </c>
+      <c r="Y3" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F3,"""")</f>
+        <v>"13": "v"</v>
+      </c>
+      <c r="Z3" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G3,"""")</f>
+        <v>"14": ""</v>
+      </c>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K3,"""")</f>
+        <v>"14": "/"</v>
+      </c>
+      <c r="AE3" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L3,"""")</f>
+        <v>"13": ";"</v>
+      </c>
+      <c r="AF3" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M3,"""")</f>
+        <v>"12": "k"</v>
+      </c>
+      <c r="AG3" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N3,"""")</f>
+        <v>"11": "i"</v>
+      </c>
+      <c r="AH3" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O3,"""")</f>
+        <v>"10": "c"</v>
+      </c>
+      <c r="AI3" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P3,"""")</f>
+        <v>"9": "z"</v>
+      </c>
+      <c r="AJ3" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q3,"""")</f>
+        <v>"8": "-"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="99"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="99" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="105" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A4,"""")</f>
+        <v>"15": "/"</v>
+      </c>
+      <c r="U4" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B4,"""")</f>
+        <v>"16": "u"</v>
+      </c>
+      <c r="V4" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C4,"""")</f>
+        <v>"17": "d"</v>
+      </c>
+      <c r="W4" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D4,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="X4" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E4,"""")</f>
+        <v>"19": "r"</v>
+      </c>
+      <c r="Y4" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F4,"""")</f>
+        <v>"20": "b"</v>
+      </c>
+      <c r="Z4" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G4,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K4,"""")</f>
+        <v>"21": "'"</v>
+      </c>
+      <c r="AE4" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L4,"""")</f>
+        <v>"20": "."</v>
+      </c>
+      <c r="AF4" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M4,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="AG4" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N4,"""")</f>
+        <v>"18": "a"</v>
+      </c>
+      <c r="AH4" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O4,"""")</f>
+        <v>"17": "n"</v>
+      </c>
+      <c r="AI4" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P4,"""")</f>
+        <v>"16": "s"</v>
+      </c>
+      <c r="AJ4" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q4,"""")</f>
+        <v>"15": "="</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" s="80"/>
+      <c r="B5" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="90"/>
+      <c r="T5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A5,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="U5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B5,"""")</f>
+        <v>"23": "j"</v>
+      </c>
+      <c r="V5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C5,"""")</f>
+        <v>"24": "p"</v>
+      </c>
+      <c r="W5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D5,"""")</f>
+        <v>"25": "y"</v>
+      </c>
+      <c r="X5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E5,"""")</f>
+        <v>"26": "l"</v>
+      </c>
+      <c r="Y5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F5,"""")</f>
+        <v>"27": "w"</v>
+      </c>
+      <c r="Z5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G5,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="AA5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H5,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="AB5"/>
+      <c r="AC5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J5,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="AD5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K5,"""")</f>
+        <v>"28": "`"</v>
+      </c>
+      <c r="AE5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L5,"""")</f>
+        <v>"27": ","</v>
+      </c>
+      <c r="AF5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M5,"""")</f>
+        <v>"26": "g"</v>
+      </c>
+      <c r="AG5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N5,"""")</f>
+        <v>"25": "h"</v>
+      </c>
+      <c r="AH5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O5,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="AI5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P5,"""")</f>
+        <v>"23": ""</v>
+      </c>
+      <c r="AJ5" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q5,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="82"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="82"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="158" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="92"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="T6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A6,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="U6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B6,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="V6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C6,"""")</f>
+        <v>"32": "["</v>
+      </c>
+      <c r="W6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D6,"""")</f>
+        <v>"33": "]"</v>
+      </c>
+      <c r="X6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E6,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="Y6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F6,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="Z6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G6,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="AA6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H6,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="AB6"/>
+      <c r="AC6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J6,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="AD6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K6,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="AE6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L6,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="AF6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M6,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="AG6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N6,"""")</f>
+        <v>"33": ""</v>
+      </c>
+      <c r="AH6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O6,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="AI6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P6,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="AJ6" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q6,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="82"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H7,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="AB7"/>
+      <c r="AC7" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J7,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,T2:AA7,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "m","11": "o","12": "f","13": "v","14": "","15": "/","16": "u","17": "d","18": "e","19": "r","20": "b","21": "","22": "","23": "j","24": "p","25": "y","26": "l","27": "w","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",T8,"}",", ""right"": {",T9,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "\\","9": "q","10": "m","11": "o","12": "f","13": "v","14": "","15": "/","16": "u","17": "d","18": "e","19": "r","20": "b","21": "","22": "","23": "j","24": "p","25": "y","26": "l","27": "w","28": "","29": "","30": "","31": "","32": "[","33": "]","34": "","35": "","36": "","37": "","38": ""}, "right": {"7": "\","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "/","13": ";","12": "k","11": "i","10": "c","9": "z","8": "-","21": "'","20": ".","19": "t","18": "a","17": "n","16": "s","15": "=","29": "","28": "`","27": ",","26": "g","25": "h","24": "x","23": "","22": "","37": "","36": "","35": " ","34": "","33": "","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,AC2:AJ7,)</f>
+        <v>"7": "\","6": "6","5": "7","4": "8","3": "9","2": "0","1": "","14": "/","13": ";","12": "k","11": "i","10": "c","9": "z","8": "-","21": "'","20": ".","19": "t","18": "a","17": "n","16": "s","15": "=","29": "","28": "`","27": ",","26": "g","25": "h","24": "x","23": "","22": "","37": "","36": "","35": " ","34": "","33": "","32": "","31": "","30": "","38": ""</v>
+      </c>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="111" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="131">
+        <v>11.692</v>
+      </c>
+      <c r="D12" s="111"/>
+      <c r="F12" s="78" t="str">
+        <f>B3</f>
+        <v>q</v>
+      </c>
+      <c r="G12" s="78">
+        <f t="shared" ref="G12:G26" si="0">_xlfn.IFNA(_xlfn.IFNA(INDEX($C$12:$C$58, MATCH(F12,$A$12:$A$58,0)), INDEX($C$12:$C$58, MATCH(F12,$B$12:$B$58,0))),0)</f>
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="I12" s="78" t="str">
+        <f>L3</f>
+        <v>;</v>
+      </c>
+      <c r="J12" s="78">
+        <f t="shared" ref="J12:J26" si="1">_xlfn.IFNA(_xlfn.IFNA(INDEX($C$12:$C$58, MATCH(I12,$A$12:$A$58,0)), INDEX($C$12:$C$58, MATCH(I12,$B$12:$B$58,0))),0)</f>
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="131">
+        <v>9.1489999999999991</v>
+      </c>
+      <c r="D13" s="111">
+        <f>C12-Table9152[[#This Row],[%]]</f>
+        <v>2.543000000000001</v>
+      </c>
+      <c r="F13" s="78" t="str">
+        <f>B4</f>
+        <v>u</v>
+      </c>
+      <c r="G13" s="78">
+        <f t="shared" si="0"/>
+        <v>2.6539999999999999</v>
+      </c>
+      <c r="I13" s="78" t="str">
+        <f>L4</f>
+        <v>.</v>
+      </c>
+      <c r="J13" s="78">
+        <f t="shared" si="1"/>
+        <v>3.0430000000000001</v>
+      </c>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="111"/>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="111"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A14" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="131">
+        <v>7.2220000000000004</v>
+      </c>
+      <c r="D14" s="111">
+        <f>C13-Table9152[[#This Row],[%]]</f>
+        <v>1.9269999999999987</v>
+      </c>
+      <c r="F14" s="78" t="str">
+        <f>B5</f>
+        <v>j</v>
+      </c>
+      <c r="G14" s="78">
+        <f t="shared" si="0"/>
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="I14" s="78" t="str">
+        <f>L5</f>
+        <v>,</v>
+      </c>
+      <c r="J14" s="78">
+        <f t="shared" si="1"/>
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+      <c r="W14" s="111"/>
+      <c r="X14" s="111"/>
+      <c r="Y14" s="111"/>
+      <c r="Z14" s="111"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A15" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="120">
+        <v>6.7350000000000003</v>
+      </c>
+      <c r="D15" s="111">
+        <f>C14-Table9152[[#This Row],[%]]</f>
+        <v>0.4870000000000001</v>
+      </c>
+      <c r="F15" s="78" t="str">
+        <f>C3</f>
+        <v>m</v>
+      </c>
+      <c r="G15" s="78">
+        <f t="shared" si="0"/>
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="I15" s="78" t="str">
+        <f>M3</f>
+        <v>k</v>
+      </c>
+      <c r="J15" s="78">
+        <f t="shared" si="1"/>
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="111"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A16" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="120">
+        <v>6.7030000000000003</v>
+      </c>
+      <c r="D16" s="111">
+        <f>C15-Table9152[[#This Row],[%]]</f>
+        <v>3.2000000000000028E-2</v>
+      </c>
+      <c r="F16" s="78" t="str">
+        <f>C4</f>
+        <v>d</v>
+      </c>
+      <c r="G16" s="78">
+        <f t="shared" si="0"/>
+        <v>3.1739999999999999</v>
+      </c>
+      <c r="I16" s="78" t="str">
+        <f>M4</f>
+        <v>t</v>
+      </c>
+      <c r="J16" s="78">
+        <f t="shared" si="1"/>
+        <v>9.1489999999999991</v>
+      </c>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="111"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="120">
+        <v>6.49</v>
+      </c>
+      <c r="D17" s="111">
+        <f>C16-Table9152[[#This Row],[%]]</f>
+        <v>0.21300000000000008</v>
+      </c>
+      <c r="F17" s="78" t="str">
+        <f>C5</f>
+        <v>p</v>
+      </c>
+      <c r="G17" s="78">
+        <f t="shared" si="0"/>
+        <v>2.54</v>
+      </c>
+      <c r="I17" s="78" t="str">
+        <f>M5</f>
+        <v>g</v>
+      </c>
+      <c r="J17" s="78">
+        <f t="shared" si="1"/>
+        <v>1.597</v>
+      </c>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="111"/>
+      <c r="X17" s="111"/>
+      <c r="Y17" s="111"/>
+      <c r="Z17" s="111"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="120">
+        <v>6.3739999999999997</v>
+      </c>
+      <c r="D18" s="111">
+        <f>C17-Table9152[[#This Row],[%]]</f>
+        <v>0.11600000000000055</v>
+      </c>
+      <c r="F18" s="78" t="str">
+        <f>D3</f>
+        <v>o</v>
+      </c>
+      <c r="G18" s="78">
+        <f t="shared" si="0"/>
+        <v>6.7030000000000003</v>
+      </c>
+      <c r="I18" s="78" t="str">
+        <f>N3</f>
+        <v>i</v>
+      </c>
+      <c r="J18" s="78">
+        <f t="shared" si="1"/>
+        <v>6.7350000000000003</v>
+      </c>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+      <c r="W18" s="111"/>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="111"/>
+      <c r="Z18" s="111"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="120">
+        <v>5.7329999999999997</v>
+      </c>
+      <c r="D19" s="111">
+        <f>C18-Table9152[[#This Row],[%]]</f>
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F19" s="78" t="str">
+        <f>D4</f>
+        <v>e</v>
+      </c>
+      <c r="G19" s="78">
+        <f t="shared" si="0"/>
+        <v>11.692</v>
+      </c>
+      <c r="I19" s="78" t="str">
+        <f>N4</f>
+        <v>a</v>
+      </c>
+      <c r="J19" s="78">
+        <f t="shared" si="1"/>
+        <v>7.2220000000000004</v>
+      </c>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+      <c r="W19" s="111"/>
+      <c r="X19" s="111"/>
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="111"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="133">
+        <v>3.9790000000000001</v>
+      </c>
+      <c r="D20" s="111">
+        <f>C19-Table9152[[#This Row],[%]]</f>
+        <v>1.7539999999999996</v>
+      </c>
+      <c r="F20" s="78" t="str">
+        <f>D5</f>
+        <v>y</v>
+      </c>
+      <c r="G20" s="78">
+        <f t="shared" si="0"/>
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="I20" s="78" t="str">
+        <f>N5</f>
+        <v>h</v>
+      </c>
+      <c r="J20" s="78">
+        <f t="shared" si="1"/>
+        <v>3.2429999999999999</v>
+      </c>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="111"/>
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="111"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="133">
+        <v>3.9359999999999999</v>
+      </c>
+      <c r="D21" s="111">
+        <f>C20-Table9152[[#This Row],[%]]</f>
+        <v>4.3000000000000149E-2</v>
+      </c>
+      <c r="F21" s="78" t="str">
+        <f>E3</f>
+        <v>f</v>
+      </c>
+      <c r="G21" s="78">
+        <f t="shared" si="0"/>
+        <v>1.756</v>
+      </c>
+      <c r="I21" s="78" t="str">
+        <f>O3</f>
+        <v>c</v>
+      </c>
+      <c r="J21" s="78">
+        <f t="shared" si="1"/>
+        <v>3.9359999999999999</v>
+      </c>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="111"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="121">
+        <v>3.2429999999999999</v>
+      </c>
+      <c r="D22" s="111">
+        <f>C21-Table9152[[#This Row],[%]]</f>
+        <v>0.69300000000000006</v>
+      </c>
+      <c r="F22" s="78" t="str">
+        <f>E4</f>
+        <v>r</v>
+      </c>
+      <c r="G22" s="78">
+        <f t="shared" si="0"/>
+        <v>5.7329999999999997</v>
+      </c>
+      <c r="I22" s="78" t="str">
+        <f>O4</f>
+        <v>n</v>
+      </c>
+      <c r="J22" s="78">
+        <f t="shared" si="1"/>
+        <v>6.49</v>
+      </c>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="111"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="114" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="121">
+        <v>3.1739999999999999</v>
+      </c>
+      <c r="D23" s="111">
+        <f>C22-Table9152[[#This Row],[%]]</f>
+        <v>6.899999999999995E-2</v>
+      </c>
+      <c r="F23" s="78" t="str">
+        <f>E5</f>
+        <v>l</v>
+      </c>
+      <c r="G23" s="78">
+        <f t="shared" si="0"/>
+        <v>3.9790000000000001</v>
+      </c>
+      <c r="I23" s="78" t="str">
+        <f>O5</f>
+        <v>x</v>
+      </c>
+      <c r="J23" s="78">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="111"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="126" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="121">
+        <v>3.0430000000000001</v>
+      </c>
+      <c r="D24" s="111">
+        <f>C23-Table9152[[#This Row],[%]]</f>
+        <v>0.13099999999999978</v>
+      </c>
+      <c r="F24" s="78" t="str">
+        <f>F3</f>
+        <v>v</v>
+      </c>
+      <c r="G24" s="78">
+        <f t="shared" si="0"/>
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="I24" s="78" t="str">
+        <f>P3</f>
+        <v>z</v>
+      </c>
+      <c r="J24" s="78">
+        <f t="shared" si="1"/>
+        <v>0.105</v>
+      </c>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
+      <c r="Z24" s="111"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="121">
+        <v>2.6539999999999999</v>
+      </c>
+      <c r="D25" s="111">
+        <f>C24-Table9152[[#This Row],[%]]</f>
+        <v>0.38900000000000023</v>
+      </c>
+      <c r="F25" s="78" t="str">
+        <f>F4</f>
+        <v>b</v>
+      </c>
+      <c r="G25" s="78">
+        <f t="shared" si="0"/>
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="I25" s="78" t="str">
+        <f>P4</f>
+        <v>s</v>
+      </c>
+      <c r="J25" s="78">
+        <f t="shared" si="1"/>
+        <v>6.3739999999999997</v>
+      </c>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="111"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="111"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="121">
+        <v>2.54</v>
+      </c>
+      <c r="D26" s="111">
+        <f>C25-Table9152[[#This Row],[%]]</f>
+        <v>0.11399999999999988</v>
+      </c>
+      <c r="F26" s="78" t="str">
+        <f>F5</f>
+        <v>w</v>
+      </c>
+      <c r="G26" s="78">
+        <f t="shared" si="0"/>
+        <v>1.278</v>
+      </c>
+      <c r="I26" s="78">
+        <f>P5</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="111"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="111"/>
+      <c r="Z26" s="111"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="121">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="D27" s="111">
+        <f>C26-Table9152[[#This Row],[%]]</f>
+        <v>0.10199999999999987</v>
+      </c>
+      <c r="F27" s="127"/>
+      <c r="G27" s="128">
+        <f>SUM(G12:G26)</f>
+        <v>46.364999999999995</v>
+      </c>
+      <c r="I27" s="127"/>
+      <c r="J27" s="129">
+        <f>SUM(J12:J26)</f>
+        <v>50.268000000000001</v>
+      </c>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="111"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="122">
+        <v>1.756</v>
+      </c>
+      <c r="D28" s="111">
+        <f>C27-Table9152[[#This Row],[%]]</f>
+        <v>0.68200000000000016</v>
+      </c>
+      <c r="E28"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
+      <c r="U28" s="111"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="111"/>
+      <c r="Y28" s="111"/>
+      <c r="Z28" s="111"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="122">
+        <v>1.597</v>
+      </c>
+      <c r="D29" s="111">
+        <f>C28-Table9152[[#This Row],[%]]</f>
+        <v>0.15900000000000003</v>
+      </c>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
+      <c r="U29" s="111"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="111"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="122">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="D30" s="111">
+        <f>C29-Table9152[[#This Row],[%]]</f>
+        <v>4.8000000000000043E-2</v>
+      </c>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="122">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="D31" s="111">
+        <f>C30-Table9152[[#This Row],[%]]</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="122">
+        <v>1.278</v>
+      </c>
+      <c r="D32" s="111">
+        <f>C31-Table9152[[#This Row],[%]]</f>
+        <v>0.27099999999999991</v>
+      </c>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" s="115" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="115" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="122">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="D33" s="111">
+        <f>C32-Table9152[[#This Row],[%]]</f>
+        <v>0.25100000000000011</v>
+      </c>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="122">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="D34" s="111">
+        <f>C33-Table9152[[#This Row],[%]]</f>
+        <v>0.12599999999999989</v>
+      </c>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+      <c r="V34" s="111"/>
+      <c r="W34" s="111"/>
+      <c r="X34" s="111"/>
+      <c r="Y34" s="111"/>
+      <c r="Z34" s="111"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="123">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="D35" s="111">
+        <f>C34-Table9152[[#This Row],[%]]</f>
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="123">
+        <v>0.43</v>
+      </c>
+      <c r="D36" s="111">
+        <f>C35-Table9152[[#This Row],[%]]</f>
+        <v>8.9000000000000024E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A37" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="123">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D37" s="111">
+        <f>C36-Table9152[[#This Row],[%]]</f>
+        <v>3.1999999999999973E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="123">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="D38" s="111">
+        <f>C37-Table9152[[#This Row],[%]]</f>
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="123">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D39" s="78">
+        <f>C38-Table9152[[#This Row],[%]]</f>
+        <v>3.1000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="123">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="D40" s="78">
+        <f>C39-Table9152[[#This Row],[%]]</f>
+        <v>5.6999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="123">
+        <v>0.105</v>
+      </c>
+      <c r="D41" s="78">
+        <f>C40-Table9152[[#This Row],[%]]</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H42" s="111"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="111"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H44" s="111"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="111"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="111"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H47" s="111"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="111"/>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="111"/>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="111"/>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="111"/>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="111"/>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H53" s="111"/>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H54" s="111"/>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="111"/>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="111"/>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="111"/>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="111"/>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H59" s="111"/>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H60" s="111"/>
+    </row>
+    <row r="61" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H61" s="111"/>
+    </row>
+    <row r="62" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H62" s="111"/>
+    </row>
+    <row r="63" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H63" s="111"/>
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="H64" s="111"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H65" s="111"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H66" s="111"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H67" s="111"/>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H68" s="111"/>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H69" s="111"/>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H70" s="111"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H71" s="111"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H72" s="111"/>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H73" s="111"/>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H74" s="111"/>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H75" s="111"/>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H76" s="111"/>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H77" s="111"/>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H78" s="111"/>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H79" s="111"/>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H80" s="111"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H81" s="111"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H82" s="111"/>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H83" s="111"/>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H84" s="111"/>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H85" s="111"/>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H86" s="111"/>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H87" s="111"/>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H88" s="111"/>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H89" s="111"/>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H90" s="111"/>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H91" s="111"/>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H92" s="111"/>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H93" s="111"/>
+    </row>
+    <row r="94" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H94" s="111"/>
+    </row>
+    <row r="95" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H95" s="111"/>
+    </row>
+    <row r="96" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H96" s="111"/>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H97" s="111"/>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H98" s="111"/>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H99" s="111"/>
+    </row>
+    <row r="100" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H100" s="111"/>
+    </row>
+    <row r="101" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H101" s="111"/>
+    </row>
+    <row r="102" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H102" s="111"/>
+    </row>
+    <row r="103" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H103" s="111"/>
+    </row>
+    <row r="104" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H104" s="111"/>
+    </row>
+    <row r="105" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H105" s="111"/>
+    </row>
+    <row r="106" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H106" s="111"/>
+    </row>
+    <row r="107" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H107" s="111"/>
+    </row>
+    <row r="108" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H108" s="111"/>
+    </row>
+    <row r="109" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H109" s="111"/>
+    </row>
+    <row r="110" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H110" s="111"/>
+    </row>
+    <row r="111" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H111" s="111"/>
+    </row>
+    <row r="112" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H112" s="111"/>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H113" s="111"/>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H114" s="111"/>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H115" s="111"/>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H116" s="111"/>
+    </row>
+    <row r="117" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H117" s="111"/>
+    </row>
+    <row r="118" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H118" s="111"/>
+    </row>
+    <row r="119" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H119" s="111"/>
+    </row>
+    <row r="120" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H120" s="111"/>
+    </row>
+    <row r="121" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H121" s="111"/>
+    </row>
+    <row r="122" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H122" s="111"/>
+    </row>
+    <row r="123" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H123" s="111"/>
+    </row>
+    <row r="124" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H124" s="111"/>
+    </row>
+    <row r="125" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H125" s="111"/>
+    </row>
+    <row r="126" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H126" s="111"/>
+    </row>
+    <row r="127" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H127" s="111"/>
+    </row>
+    <row r="128" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H128" s="111"/>
+    </row>
+    <row r="129" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H129" s="111"/>
+    </row>
+    <row r="130" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H130" s="111"/>
+    </row>
+    <row r="131" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H131" s="111"/>
+    </row>
+    <row r="132" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H132" s="111"/>
+    </row>
+    <row r="133" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H133" s="111"/>
+    </row>
+    <row r="134" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H134" s="111"/>
+    </row>
+    <row r="135" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H135" s="111"/>
+    </row>
+    <row r="136" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H136" s="111"/>
+    </row>
+    <row r="137" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H137" s="111"/>
+    </row>
+    <row r="138" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H138" s="111"/>
+    </row>
+    <row r="139" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H139" s="111"/>
+    </row>
+    <row r="140" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H140" s="111"/>
+    </row>
+    <row r="141" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H141" s="111"/>
+    </row>
+    <row r="142" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H142" s="111"/>
+    </row>
+    <row r="143" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H143" s="111"/>
+    </row>
+    <row r="144" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H144" s="111"/>
+    </row>
+    <row r="145" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H145" s="111"/>
+    </row>
+    <row r="146" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H146" s="111"/>
+    </row>
+    <row r="147" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H147" s="111"/>
+    </row>
+    <row r="148" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H148" s="111"/>
+    </row>
+    <row r="149" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H149" s="111"/>
+    </row>
+    <row r="150" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H150" s="111"/>
+    </row>
+    <row r="151" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H151" s="111"/>
+    </row>
+    <row r="152" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H152" s="111"/>
+    </row>
+    <row r="153" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H153" s="111"/>
+    </row>
+    <row r="154" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H154" s="111"/>
+    </row>
+    <row r="155" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H155" s="111"/>
+    </row>
+    <row r="156" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H156" s="111"/>
+    </row>
+    <row r="157" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H157" s="111"/>
+    </row>
+    <row r="158" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H158" s="111"/>
+    </row>
+    <row r="159" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H159" s="111"/>
+    </row>
+    <row r="160" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H160" s="111"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H161" s="111"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H162" s="111"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H163" s="111"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H164" s="111"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H165" s="111"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H166" s="111"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H167" s="111"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H168" s="111"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H169" s="111"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H170" s="111"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H171" s="111"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H172" s="111"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173"/>
+      <c r="B173"/>
+      <c r="H173" s="111"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H174" s="111"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H175" s="111"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H176" s="111"/>
+    </row>
+    <row r="177" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H177" s="111"/>
+    </row>
+    <row r="178" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H178" s="111"/>
+    </row>
+    <row r="179" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H179" s="111"/>
+    </row>
+    <row r="180" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H180" s="111"/>
+    </row>
+    <row r="181" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H181" s="111"/>
+    </row>
+    <row r="182" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H182" s="111"/>
+    </row>
+    <row r="183" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H183" s="111"/>
+    </row>
+    <row r="184" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H184" s="111"/>
+    </row>
+    <row r="185" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H185" s="111"/>
+    </row>
+    <row r="186" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H186" s="111"/>
+    </row>
+    <row r="187" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H187" s="111"/>
+    </row>
+    <row r="188" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H188" s="111"/>
+    </row>
+    <row r="189" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H189" s="111"/>
+    </row>
+    <row r="190" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H190" s="111"/>
+    </row>
+    <row r="191" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H191" s="111"/>
+    </row>
+    <row r="192" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H192" s="111"/>
+    </row>
+    <row r="193" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H193" s="111"/>
+    </row>
+    <row r="194" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H194" s="111"/>
+    </row>
+    <row r="195" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H195" s="111"/>
+    </row>
+    <row r="196" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H196" s="111"/>
+    </row>
+    <row r="197" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H197" s="111"/>
+    </row>
+    <row r="198" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H198" s="111"/>
+    </row>
+    <row r="199" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H199" s="111"/>
+    </row>
+    <row r="200" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H200" s="111"/>
+    </row>
+    <row r="201" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H201" s="111"/>
+    </row>
+    <row r="202" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H202" s="111"/>
+    </row>
+    <row r="203" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H203" s="111"/>
+    </row>
+    <row r="204" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H204" s="111"/>
+    </row>
+    <row r="205" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H205" s="111"/>
+    </row>
+    <row r="206" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H206" s="111"/>
+    </row>
+    <row r="207" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H207" s="111"/>
+    </row>
+    <row r="208" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H208" s="111"/>
+    </row>
+    <row r="209" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H209" s="111"/>
+    </row>
+    <row r="210" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H210" s="111"/>
+    </row>
+    <row r="211" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H211" s="111"/>
+    </row>
+    <row r="212" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H212" s="111"/>
+    </row>
+    <row r="213" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H213" s="111"/>
+    </row>
+    <row r="214" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H214" s="111"/>
+    </row>
+    <row r="215" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H215" s="111"/>
+    </row>
+    <row r="216" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H216" s="111"/>
+    </row>
+    <row r="217" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H217" s="111"/>
+    </row>
+    <row r="218" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H218" s="111"/>
+    </row>
+    <row r="219" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H219" s="111"/>
+    </row>
+    <row r="220" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H220" s="111"/>
+    </row>
+    <row r="221" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H221" s="111"/>
+    </row>
+    <row r="222" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H222" s="111"/>
+    </row>
+    <row r="223" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H223" s="111"/>
+    </row>
+    <row r="224" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H224" s="111"/>
+    </row>
+    <row r="225" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H225" s="111"/>
+    </row>
+    <row r="226" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H226" s="111"/>
+    </row>
+    <row r="227" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H227" s="111"/>
+    </row>
+    <row r="228" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H228" s="111"/>
+    </row>
+    <row r="229" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H229" s="111"/>
+    </row>
+    <row r="230" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H230" s="111"/>
+    </row>
+    <row r="231" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H231" s="111"/>
+    </row>
+    <row r="232" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H232" s="111"/>
+    </row>
+    <row r="233" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H233" s="111"/>
+    </row>
+    <row r="234" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H234" s="111"/>
+    </row>
+    <row r="235" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H235" s="111"/>
+    </row>
+    <row r="236" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H236" s="111"/>
+    </row>
+    <row r="237" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H237" s="111"/>
+    </row>
+    <row r="238" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H238" s="111"/>
+    </row>
+    <row r="239" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H239" s="111"/>
+    </row>
+    <row r="240" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H240" s="111"/>
+    </row>
+    <row r="241" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H241" s="111"/>
+    </row>
+    <row r="242" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H242" s="111"/>
+    </row>
+    <row r="243" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H243" s="111"/>
+    </row>
+    <row r="244" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H244" s="111"/>
+    </row>
+    <row r="245" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H245" s="111"/>
+    </row>
+    <row r="246" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H246" s="111"/>
+    </row>
+    <row r="247" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H247" s="111"/>
+    </row>
+    <row r="248" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H248" s="111"/>
+    </row>
+    <row r="249" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H249" s="111"/>
+    </row>
+    <row r="250" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H250" s="111"/>
+    </row>
+    <row r="251" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H251" s="111"/>
+    </row>
+    <row r="252" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H252" s="111"/>
+    </row>
+    <row r="253" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H253" s="111"/>
+    </row>
+    <row r="254" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H254" s="111"/>
+    </row>
+    <row r="255" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H255" s="111"/>
+    </row>
+    <row r="256" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H256" s="111"/>
+    </row>
+    <row r="257" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H257" s="111"/>
+    </row>
+    <row r="258" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H258" s="111"/>
+    </row>
+    <row r="259" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H259" s="111"/>
+    </row>
+    <row r="260" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H260" s="111"/>
+    </row>
+    <row r="261" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H261" s="111"/>
+    </row>
+    <row r="262" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H262" s="111"/>
+    </row>
+    <row r="263" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H263" s="111"/>
+    </row>
+    <row r="264" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H264" s="111"/>
+    </row>
+    <row r="265" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H265" s="111"/>
+    </row>
+    <row r="266" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H266" s="111"/>
+    </row>
+    <row r="267" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H267" s="111"/>
+    </row>
+    <row r="268" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H268" s="111"/>
+    </row>
+    <row r="269" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H269" s="111"/>
+    </row>
+    <row r="270" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H270" s="111"/>
+    </row>
+    <row r="271" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H271" s="111"/>
+    </row>
+    <row r="272" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H272" s="111"/>
+    </row>
+    <row r="273" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H273" s="111"/>
+    </row>
+    <row r="274" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H274" s="111"/>
+    </row>
+    <row r="275" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H275" s="111"/>
+    </row>
+    <row r="276" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H276" s="111"/>
+    </row>
+    <row r="277" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H277" s="111"/>
+    </row>
+    <row r="278" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H278" s="111"/>
+    </row>
+    <row r="279" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H279" s="111"/>
+    </row>
+    <row r="280" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H280" s="111"/>
+    </row>
+    <row r="281" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H281" s="111"/>
+    </row>
+    <row r="282" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H282" s="111"/>
+    </row>
+    <row r="283" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H283" s="111"/>
+    </row>
+    <row r="284" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H284" s="111"/>
+    </row>
+    <row r="285" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H285" s="111"/>
+    </row>
+    <row r="286" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H286" s="111"/>
+    </row>
+    <row r="287" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H287" s="111"/>
+    </row>
+    <row r="288" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H288" s="111"/>
+    </row>
+    <row r="289" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H289" s="111"/>
+    </row>
+    <row r="290" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H290" s="111"/>
+    </row>
+    <row r="291" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H291" s="111"/>
+    </row>
+    <row r="292" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H292" s="111"/>
+    </row>
+    <row r="293" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H293" s="111"/>
+    </row>
+    <row r="294" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H294" s="111"/>
+    </row>
+    <row r="295" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H295" s="111"/>
+    </row>
+    <row r="296" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H296" s="111"/>
+    </row>
+    <row r="297" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H297" s="111"/>
+    </row>
+    <row r="298" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H298" s="111"/>
+    </row>
+    <row r="299" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H299" s="111"/>
+    </row>
+    <row r="300" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H300" s="111"/>
+    </row>
+    <row r="301" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H301" s="111"/>
+    </row>
+    <row r="302" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H302" s="111"/>
+    </row>
+    <row r="303" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H303" s="111"/>
+    </row>
+    <row r="304" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H304" s="111"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H305" s="111"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H306" s="111"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H307" s="111"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H308" s="111"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H309" s="111"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H310" s="111"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H311" s="111"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H312" s="111"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H313" s="111"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H314" s="111"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H315" s="111"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H316" s="111"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H317" s="111"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H318" s="111"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A319" s="112"/>
+      <c r="B319" s="112"/>
+    </row>
+  </sheetData>
+  <dataConsolidate>
+    <dataRefs count="1">
+      <dataRef ref="A12:B317" sheet="Template"/>
+    </dataRefs>
+  </dataConsolidate>
+  <mergeCells count="4">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224431CD-CF00-47DD-8ACA-64FF62A3AD19}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
